--- a/dfpyme/Movimiento de caja .xlsx
+++ b/dfpyme/Movimiento de caja .xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>JUAN ESTEBAN TEJADA GIRALDO</t>
-  </si>
-  <si>
-    <t>NIT: 1116283241</t>
-  </si>
-  <si>
-    <t>Dirección: CL 1 12 08 BRR LA REBECA PEREIRA Rda.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+  <si>
+    <t>FEDERACIÓN NACIONAL DE CAFETEROS</t>
+  </si>
+  <si>
+    <t>TIENDA RISARALDA DIVERSIDAD DE PERFILES REBECA</t>
+  </si>
+  <si>
+    <t>NIT: 860007538</t>
+  </si>
+  <si>
+    <t>Dirección: Parque La Rebeca Cr 13 Cl 13 PEREIRA Rda.</t>
   </si>
   <si>
     <t xml:space="preserve">REPORTE MOVIMIENTO DE CAJA   </t>
@@ -32,19 +35,16 @@
     <t>Fecha apertura:</t>
   </si>
   <si>
-    <t>2025-01-16</t>
+    <t>2025-02-19</t>
   </si>
   <si>
     <t>Fecha cierre:</t>
   </si>
   <si>
-    <t xml:space="preserve">No se ha cerrado caja </t>
-  </si>
-  <si>
     <t>Fecha generacion:</t>
   </si>
   <si>
-    <t>2025-01-17</t>
+    <t>2025-02-21</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -77,34 +77,169 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>03:14 PM</t>
-  </si>
-  <si>
-    <t>FE706</t>
-  </si>
-  <si>
-    <t>ESTEBAN</t>
-  </si>
-  <si>
-    <t>03:35 PM</t>
-  </si>
-  <si>
-    <t>FE707</t>
-  </si>
-  <si>
-    <t>04:36 PM</t>
-  </si>
-  <si>
-    <t>05:22 PM</t>
-  </si>
-  <si>
-    <t>06:36 PM</t>
-  </si>
-  <si>
-    <t>FE708</t>
-  </si>
-  <si>
-    <t>06:37 PM</t>
+    <t>11:10 AM</t>
+  </si>
+  <si>
+    <t>70BB10594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVIANA ARIAS </t>
+  </si>
+  <si>
+    <t>11:39 AM</t>
+  </si>
+  <si>
+    <t>70BB10595</t>
+  </si>
+  <si>
+    <t>11:41 AM</t>
+  </si>
+  <si>
+    <t>70BB10596</t>
+  </si>
+  <si>
+    <t>11:59 AM</t>
+  </si>
+  <si>
+    <t>70BB10597</t>
+  </si>
+  <si>
+    <t>12:01 PM</t>
+  </si>
+  <si>
+    <t>70BB10598</t>
+  </si>
+  <si>
+    <t>01:17 PM</t>
+  </si>
+  <si>
+    <t>70BB10599</t>
+  </si>
+  <si>
+    <t>01:19 PM</t>
+  </si>
+  <si>
+    <t>70BB10600</t>
+  </si>
+  <si>
+    <t>01:39 PM</t>
+  </si>
+  <si>
+    <t>70BB10601</t>
+  </si>
+  <si>
+    <t>01:44 PM</t>
+  </si>
+  <si>
+    <t>70BB10602</t>
+  </si>
+  <si>
+    <t>01:58 PM</t>
+  </si>
+  <si>
+    <t>70BB10603</t>
+  </si>
+  <si>
+    <t>02:33 PM</t>
+  </si>
+  <si>
+    <t>70BB10604</t>
+  </si>
+  <si>
+    <t>02:38 PM</t>
+  </si>
+  <si>
+    <t>70BB10605</t>
+  </si>
+  <si>
+    <t>02:47 PM</t>
+  </si>
+  <si>
+    <t>70BB10606</t>
+  </si>
+  <si>
+    <t>02:51 PM</t>
+  </si>
+  <si>
+    <t>70BB10607</t>
+  </si>
+  <si>
+    <t>02:59 PM</t>
+  </si>
+  <si>
+    <t>70BB10608</t>
+  </si>
+  <si>
+    <t>03:07 PM</t>
+  </si>
+  <si>
+    <t>70BB10609</t>
+  </si>
+  <si>
+    <t>03:21 PM</t>
+  </si>
+  <si>
+    <t>70BB10610</t>
+  </si>
+  <si>
+    <t>03:27 PM</t>
+  </si>
+  <si>
+    <t>70BB10611</t>
+  </si>
+  <si>
+    <t>03:32 PM</t>
+  </si>
+  <si>
+    <t>70BB10612</t>
+  </si>
+  <si>
+    <t>04:35 PM</t>
+  </si>
+  <si>
+    <t>70BB10613</t>
+  </si>
+  <si>
+    <t>04:46 PM</t>
+  </si>
+  <si>
+    <t>70BB10614</t>
+  </si>
+  <si>
+    <t>04:49 PM</t>
+  </si>
+  <si>
+    <t>70BB10615</t>
+  </si>
+  <si>
+    <t>04:55 PM</t>
+  </si>
+  <si>
+    <t>70BB10616</t>
+  </si>
+  <si>
+    <t>05:01 PM</t>
+  </si>
+  <si>
+    <t>70BB10617</t>
+  </si>
+  <si>
+    <t>05:20 PM</t>
+  </si>
+  <si>
+    <t>70BB10618</t>
+  </si>
+  <si>
+    <t>05:32 PM</t>
+  </si>
+  <si>
+    <t>70BB10619</t>
+  </si>
+  <si>
+    <t>05:48 PM</t>
+  </si>
+  <si>
+    <t>70BB10620</t>
   </si>
   <si>
     <t>Venta Electrónica</t>
@@ -114,9 +249,6 @@
   </si>
   <si>
     <t>EFECTIVO</t>
-  </si>
-  <si>
-    <t>TARJETA DÉBITO</t>
   </si>
   <si>
     <t>Total ingresos</t>
@@ -462,7 +594,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4:O4"/>
@@ -491,7 +623,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -510,7 +642,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -529,7 +661,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -548,21 +680,21 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -605,7 +737,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -614,22 +746,22 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G9">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
@@ -637,7 +769,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -646,22 +778,22 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>160000</v>
+        <v>4100</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>160000</v>
+        <v>4100</v>
       </c>
       <c r="G10">
-        <v>160000</v>
+        <v>4100</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>160000</v>
+        <v>10100</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -669,31 +801,31 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>1665</v>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>28000</v>
+        <v>21400</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28000</v>
+        <v>21400</v>
       </c>
       <c r="G11">
-        <v>28000</v>
+        <v>21400</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28000</v>
+        <v>52000</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -701,31 +833,31 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>1666</v>
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>20000</v>
+        <v>6400</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20000</v>
+        <v>6400</v>
       </c>
       <c r="G12">
-        <v>20000</v>
+        <v>6400</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20000</v>
+        <v>6400</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -733,31 +865,31 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="H13">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
@@ -765,74 +897,738 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>1668</v>
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>24000</v>
+        <v>4100</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24000</v>
+        <v>4100</v>
       </c>
       <c r="G14">
-        <v>24000</v>
+        <v>4100</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="J14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>10200</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>10200</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>10200</v>
+      </c>
+      <c r="I15">
+        <v>10200</v>
+      </c>
+      <c r="J15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>273000</v>
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>3200</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3200</v>
+      </c>
+      <c r="G16">
+        <v>3200</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>20200</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>3800</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3800</v>
+      </c>
+      <c r="G17">
+        <v>3800</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>20000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>8800</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>8800</v>
+      </c>
+      <c r="G18">
+        <v>8800</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>168000</v>
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>7200</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>7200</v>
+      </c>
+      <c r="G19">
+        <v>7200</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>8000</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>33000</v>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>48000</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>48000</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>48000</v>
+      </c>
+      <c r="I20">
+        <v>48000</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>273000</v>
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>4500</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>4500</v>
+      </c>
+      <c r="G21">
+        <v>4500</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>6000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>3200</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3200</v>
+      </c>
+      <c r="G22">
+        <v>3200</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>10000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>3400</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3400</v>
+      </c>
+      <c r="G23">
+        <v>3400</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>3800</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3800</v>
+      </c>
+      <c r="G24">
+        <v>3800</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>3800</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>14700</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>14700</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>14700</v>
+      </c>
+      <c r="I25">
+        <v>14700</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>12000</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>12000</v>
+      </c>
+      <c r="G26">
+        <v>12000</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>20000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>8300</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>8300</v>
+      </c>
+      <c r="G27">
+        <v>8300</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>10000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>10700</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>10700</v>
+      </c>
+      <c r="G28">
+        <v>10700</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>12000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>9000</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>9000</v>
+      </c>
+      <c r="G29">
+        <v>9000</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>10000</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>18700</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>18700</v>
+      </c>
+      <c r="G30">
+        <v>18700</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>50700</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>12000</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>12000</v>
+      </c>
+      <c r="G31">
+        <v>12000</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>22000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>16300</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>16300</v>
+      </c>
+      <c r="G32">
+        <v>16300</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>20000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>8800</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>8800</v>
+      </c>
+      <c r="G33">
+        <v>8800</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>10000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>6400</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>6400</v>
+      </c>
+      <c r="G34">
+        <v>6400</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>7000</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>7500</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>7500</v>
+      </c>
+      <c r="G35">
+        <v>7500</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>7500</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>274500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <v>274500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>419600</v>
       </c>
     </row>
   </sheetData>

--- a/dfpyme/Movimiento de caja .xlsx
+++ b/dfpyme/Movimiento de caja .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>FEDERACIÓN NACIONAL DE CAFETEROS</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Fecha apertura:</t>
   </si>
   <si>
-    <t>2025-02-19</t>
+    <t>2025-02-16</t>
   </si>
   <si>
     <t>Fecha cierre:</t>
@@ -44,7 +44,7 @@
     <t>Fecha generacion:</t>
   </si>
   <si>
-    <t>2025-02-21</t>
+    <t>2025-02-27</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -77,169 +77,220 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>11:10 AM</t>
-  </si>
-  <si>
-    <t>70BB10594</t>
+    <t>10:59 AM</t>
+  </si>
+  <si>
+    <t>70BB10499</t>
   </si>
   <si>
     <t xml:space="preserve">VIVIANA ARIAS </t>
   </si>
   <si>
-    <t>11:39 AM</t>
-  </si>
-  <si>
-    <t>70BB10595</t>
+    <t>11:09 AM</t>
+  </si>
+  <si>
+    <t>70BB10500</t>
+  </si>
+  <si>
+    <t>11:11 AM</t>
+  </si>
+  <si>
+    <t>70BB10501</t>
+  </si>
+  <si>
+    <t>11:33 AM</t>
+  </si>
+  <si>
+    <t>70BB10502</t>
+  </si>
+  <si>
+    <t>11:36 AM</t>
+  </si>
+  <si>
+    <t>70BB10503</t>
   </si>
   <si>
     <t>11:41 AM</t>
   </si>
   <si>
-    <t>70BB10596</t>
-  </si>
-  <si>
-    <t>11:59 AM</t>
-  </si>
-  <si>
-    <t>70BB10597</t>
-  </si>
-  <si>
-    <t>12:01 PM</t>
-  </si>
-  <si>
-    <t>70BB10598</t>
-  </si>
-  <si>
-    <t>01:17 PM</t>
-  </si>
-  <si>
-    <t>70BB10599</t>
-  </si>
-  <si>
-    <t>01:19 PM</t>
-  </si>
-  <si>
-    <t>70BB10600</t>
-  </si>
-  <si>
-    <t>01:39 PM</t>
-  </si>
-  <si>
-    <t>70BB10601</t>
-  </si>
-  <si>
-    <t>01:44 PM</t>
-  </si>
-  <si>
-    <t>70BB10602</t>
-  </si>
-  <si>
-    <t>01:58 PM</t>
-  </si>
-  <si>
-    <t>70BB10603</t>
-  </si>
-  <si>
-    <t>02:33 PM</t>
-  </si>
-  <si>
-    <t>70BB10604</t>
-  </si>
-  <si>
-    <t>02:38 PM</t>
-  </si>
-  <si>
-    <t>70BB10605</t>
-  </si>
-  <si>
-    <t>02:47 PM</t>
-  </si>
-  <si>
-    <t>70BB10606</t>
+    <t>70BB10504</t>
+  </si>
+  <si>
+    <t>11:47 AM</t>
+  </si>
+  <si>
+    <t>70BB10505</t>
+  </si>
+  <si>
+    <t>12:20 PM</t>
+  </si>
+  <si>
+    <t>70BB10506</t>
+  </si>
+  <si>
+    <t>12:38 PM</t>
+  </si>
+  <si>
+    <t>70BB10507</t>
+  </si>
+  <si>
+    <t>12:40 PM</t>
+  </si>
+  <si>
+    <t>70BB10508</t>
+  </si>
+  <si>
+    <t>12:52 PM</t>
+  </si>
+  <si>
+    <t>70BB10509</t>
+  </si>
+  <si>
+    <t>12:53 PM</t>
+  </si>
+  <si>
+    <t>70BB10510</t>
+  </si>
+  <si>
+    <t>01:18 PM</t>
+  </si>
+  <si>
+    <t>70BB10511</t>
+  </si>
+  <si>
+    <t>01:40 PM</t>
+  </si>
+  <si>
+    <t>70BB10512</t>
+  </si>
+  <si>
+    <t>02:03 PM</t>
+  </si>
+  <si>
+    <t>70BB10513</t>
+  </si>
+  <si>
+    <t>02:31 PM</t>
+  </si>
+  <si>
+    <t>70BB10514</t>
+  </si>
+  <si>
+    <t>02:41 PM</t>
+  </si>
+  <si>
+    <t>70BB10515</t>
   </si>
   <si>
     <t>02:51 PM</t>
   </si>
   <si>
-    <t>70BB10607</t>
-  </si>
-  <si>
-    <t>02:59 PM</t>
-  </si>
-  <si>
-    <t>70BB10608</t>
-  </si>
-  <si>
-    <t>03:07 PM</t>
-  </si>
-  <si>
-    <t>70BB10609</t>
-  </si>
-  <si>
-    <t>03:21 PM</t>
-  </si>
-  <si>
-    <t>70BB10610</t>
-  </si>
-  <si>
-    <t>03:27 PM</t>
-  </si>
-  <si>
-    <t>70BB10611</t>
-  </si>
-  <si>
-    <t>03:32 PM</t>
-  </si>
-  <si>
-    <t>70BB10612</t>
-  </si>
-  <si>
-    <t>04:35 PM</t>
-  </si>
-  <si>
-    <t>70BB10613</t>
-  </si>
-  <si>
-    <t>04:46 PM</t>
-  </si>
-  <si>
-    <t>70BB10614</t>
-  </si>
-  <si>
-    <t>04:49 PM</t>
-  </si>
-  <si>
-    <t>70BB10615</t>
-  </si>
-  <si>
-    <t>04:55 PM</t>
-  </si>
-  <si>
-    <t>70BB10616</t>
+    <t>70BB10516</t>
+  </si>
+  <si>
+    <t>03:15 PM</t>
+  </si>
+  <si>
+    <t>70BB10517</t>
+  </si>
+  <si>
+    <t>03:17 PM</t>
+  </si>
+  <si>
+    <t>70BB10518</t>
+  </si>
+  <si>
+    <t>03:44 PM</t>
+  </si>
+  <si>
+    <t>70BB10519</t>
+  </si>
+  <si>
+    <t>03:47 PM</t>
+  </si>
+  <si>
+    <t>70BB10520</t>
+  </si>
+  <si>
+    <t>03:48 PM</t>
+  </si>
+  <si>
+    <t>70BB10521</t>
+  </si>
+  <si>
+    <t>03:49 PM</t>
+  </si>
+  <si>
+    <t>70BB10522</t>
+  </si>
+  <si>
+    <t>70BB10523</t>
+  </si>
+  <si>
+    <t>04:02 PM</t>
+  </si>
+  <si>
+    <t>70BB10524</t>
+  </si>
+  <si>
+    <t>04:22 PM</t>
+  </si>
+  <si>
+    <t>70BB10525</t>
+  </si>
+  <si>
+    <t>04:47 PM</t>
+  </si>
+  <si>
+    <t>70BB10526</t>
+  </si>
+  <si>
+    <t>05:00 PM</t>
+  </si>
+  <si>
+    <t>70BB10527</t>
   </si>
   <si>
     <t>05:01 PM</t>
   </si>
   <si>
-    <t>70BB10617</t>
-  </si>
-  <si>
-    <t>05:20 PM</t>
-  </si>
-  <si>
-    <t>70BB10618</t>
-  </si>
-  <si>
-    <t>05:32 PM</t>
-  </si>
-  <si>
-    <t>70BB10619</t>
-  </si>
-  <si>
-    <t>05:48 PM</t>
-  </si>
-  <si>
-    <t>70BB10620</t>
+    <t>70BB10528</t>
+  </si>
+  <si>
+    <t>05:12 PM</t>
+  </si>
+  <si>
+    <t>70BB10529</t>
+  </si>
+  <si>
+    <t>05:35 PM</t>
+  </si>
+  <si>
+    <t>70BB10530</t>
+  </si>
+  <si>
+    <t>05:38 PM</t>
+  </si>
+  <si>
+    <t>70BB10531</t>
+  </si>
+  <si>
+    <t>06:04 PM</t>
+  </si>
+  <si>
+    <t>70BB10532</t>
+  </si>
+  <si>
+    <t>06:17 PM</t>
+  </si>
+  <si>
+    <t>70BB10533</t>
+  </si>
+  <si>
+    <t>06:20 PM</t>
+  </si>
+  <si>
+    <t>70BB10534</t>
   </si>
   <si>
     <t>Venta Electrónica</t>
@@ -594,7 +645,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4:O4"/>
@@ -746,22 +797,22 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>17400</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2000</v>
+        <v>17400</v>
       </c>
       <c r="G9">
-        <v>2000</v>
+        <v>17400</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
@@ -778,22 +829,22 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="G10">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10100</v>
+        <v>5500</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -810,22 +861,22 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>21400</v>
+        <v>30000</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21400</v>
+        <v>30000</v>
       </c>
       <c r="G11">
-        <v>21400</v>
+        <v>30000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -842,22 +893,22 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="G12">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -874,22 +925,22 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>16000</v>
+        <v>8800</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16000</v>
+        <v>8800</v>
       </c>
       <c r="G13">
-        <v>16000</v>
+        <v>8800</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
@@ -906,22 +957,22 @@
         <v>32</v>
       </c>
       <c r="D14">
-        <v>4100</v>
+        <v>11100</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4100</v>
+        <v>11100</v>
       </c>
       <c r="G14">
-        <v>4100</v>
+        <v>11100</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>21100</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
@@ -938,22 +989,22 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>10200</v>
+        <v>30000</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10200</v>
+        <v>30000</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H15">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>10200</v>
+        <v>50000</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -970,22 +1021,22 @@
         <v>36</v>
       </c>
       <c r="D16">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="G16">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20200</v>
+        <v>5000</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -1049,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J18" t="s">
         <v>22</v>
@@ -1066,22 +1117,22 @@
         <v>42</v>
       </c>
       <c r="D19">
-        <v>7200</v>
+        <v>4100</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7200</v>
+        <v>4100</v>
       </c>
       <c r="G19">
-        <v>7200</v>
+        <v>4100</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8000</v>
+        <v>4100</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -1098,22 +1149,22 @@
         <v>44</v>
       </c>
       <c r="D20">
-        <v>48000</v>
+        <v>12200</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48000</v>
+        <v>12200</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="H20">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="J20" t="s">
         <v>22</v>
@@ -1130,22 +1181,22 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>4500</v>
+        <v>11400</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4500</v>
+        <v>11400</v>
       </c>
       <c r="G21">
-        <v>4500</v>
+        <v>11400</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6000</v>
+        <v>52000</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -1162,22 +1213,22 @@
         <v>48</v>
       </c>
       <c r="D22">
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="G22">
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="J22" t="s">
         <v>22</v>
@@ -1194,22 +1245,22 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="G23">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
@@ -1226,22 +1277,22 @@
         <v>52</v>
       </c>
       <c r="D24">
-        <v>3800</v>
+        <v>7600</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3800</v>
+        <v>7600</v>
       </c>
       <c r="G24">
-        <v>3800</v>
+        <v>7600</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3800</v>
+        <v>20000</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -1258,22 +1309,22 @@
         <v>54</v>
       </c>
       <c r="D25">
-        <v>14700</v>
+        <v>3200</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>14700</v>
+        <v>3200</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="H25">
-        <v>14700</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>14700</v>
+        <v>3200</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
@@ -1290,22 +1341,22 @@
         <v>56</v>
       </c>
       <c r="D26">
-        <v>12000</v>
+        <v>7900</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>12000</v>
+        <v>7900</v>
       </c>
       <c r="G26">
-        <v>12000</v>
+        <v>7900</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
@@ -1322,22 +1373,22 @@
         <v>58</v>
       </c>
       <c r="D27">
-        <v>8300</v>
+        <v>28700</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>8300</v>
+        <v>28700</v>
       </c>
       <c r="G27">
-        <v>8300</v>
+        <v>28700</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="J27" t="s">
         <v>22</v>
@@ -1354,22 +1405,22 @@
         <v>60</v>
       </c>
       <c r="D28">
-        <v>10700</v>
+        <v>7600</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>10700</v>
+        <v>7600</v>
       </c>
       <c r="G28">
-        <v>10700</v>
+        <v>7600</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -1386,22 +1437,22 @@
         <v>62</v>
       </c>
       <c r="D29">
-        <v>9000</v>
+        <v>19400</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>9000</v>
+        <v>19400</v>
       </c>
       <c r="G29">
-        <v>9000</v>
+        <v>19400</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="J29" t="s">
         <v>22</v>
@@ -1418,22 +1469,22 @@
         <v>64</v>
       </c>
       <c r="D30">
-        <v>18700</v>
+        <v>20000</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>18700</v>
+        <v>20000</v>
       </c>
       <c r="G30">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I30">
-        <v>50700</v>
+        <v>20000</v>
       </c>
       <c r="J30" t="s">
         <v>22</v>
@@ -1450,22 +1501,22 @@
         <v>66</v>
       </c>
       <c r="D31">
-        <v>12000</v>
+        <v>5400</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>12000</v>
+        <v>5400</v>
       </c>
       <c r="G31">
-        <v>12000</v>
+        <v>5400</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="J31" t="s">
         <v>22</v>
@@ -1482,22 +1533,22 @@
         <v>68</v>
       </c>
       <c r="D32">
-        <v>16300</v>
+        <v>5400</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>16300</v>
+        <v>5400</v>
       </c>
       <c r="G32">
-        <v>16300</v>
+        <v>5400</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -1508,28 +1559,28 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
       <c r="D33">
-        <v>8800</v>
+        <v>7000</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>8800</v>
+        <v>7000</v>
       </c>
       <c r="G33">
-        <v>8800</v>
+        <v>7000</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="J33" t="s">
         <v>22</v>
@@ -1540,28 +1591,28 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
         <v>71</v>
       </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
       <c r="D34">
-        <v>6400</v>
+        <v>24700</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>6400</v>
+        <v>24700</v>
       </c>
       <c r="G34">
-        <v>6400</v>
+        <v>24700</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="J34" t="s">
         <v>22</v>
@@ -1572,63 +1623,351 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35">
+        <v>29000</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>29000</v>
+      </c>
+      <c r="G35">
+        <v>29000</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>30000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="D35">
-        <v>7500</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>7500</v>
-      </c>
-      <c r="G35">
-        <v>7500</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>7500</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>37200</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>37200</v>
+      </c>
+      <c r="G36">
+        <v>37200</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>40000</v>
+      </c>
+      <c r="J36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37">
-        <v>274500</v>
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <v>10800</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>10800</v>
+      </c>
+      <c r="G37">
+        <v>10800</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>12000</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>3800</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3800</v>
+      </c>
+      <c r="G38">
+        <v>3800</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>50000</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>31300</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>31300</v>
+      </c>
+      <c r="G39">
+        <v>31300</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>41300</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40">
-        <v>274500</v>
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>7600</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>7600</v>
+      </c>
+      <c r="G40">
+        <v>7600</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>7700</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41">
-        <v>419600</v>
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>7400</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>7400</v>
+      </c>
+      <c r="G41">
+        <v>7400</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>10000</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42">
+        <v>10800</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>10800</v>
+      </c>
+      <c r="G42">
+        <v>10800</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>15000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43">
+        <v>4500</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>4500</v>
+      </c>
+      <c r="G43">
+        <v>4500</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>4500</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44">
+        <v>6400</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>6400</v>
+      </c>
+      <c r="G44">
+        <v>6400</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>20000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>453200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49">
+        <v>453200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50">
+        <v>860400</v>
       </c>
     </row>
   </sheetData>
